--- a/S3_premium_Testing_Aegon_2024.xlsx
+++ b/S3_premium_Testing_Aegon_2024.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="536">
   <si>
     <t>Year</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Policy_number</t>
+    <t>Policy number</t>
   </si>
   <si>
     <t>Premium</t>
@@ -229,6 +229,9 @@
     <t>ALI521032435560</t>
   </si>
   <si>
+    <t>7,20,12,30,00,000.00</t>
+  </si>
+  <si>
     <t>ALI521031633363</t>
   </si>
   <si>
@@ -1064,6 +1067,9 @@
   </si>
   <si>
     <t>ALI521010113259</t>
+  </si>
+  <si>
+    <t>7,20,12,20,00,000.00</t>
   </si>
   <si>
     <t>ALI520120895329</t>
@@ -3220,8 +3226,8 @@
       <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="2">
-        <v>7.20123E11</v>
+      <c r="D79" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E79" s="3">
         <v>10806.0</v>
@@ -3238,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E80" s="3">
         <v>5278.0</v>
@@ -3254,8 +3260,8 @@
       <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="2">
-        <v>7.20123E11</v>
+      <c r="D81" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E81" s="3">
         <v>29.0</v>
@@ -3272,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E82" s="3">
         <v>20.0</v>
@@ -3289,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E83" s="3">
         <v>540.0</v>
@@ -3306,7 +3312,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E84" s="3">
         <v>1157.0</v>
@@ -3323,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E85" s="3">
         <v>3525.0</v>
@@ -3340,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E86" s="3">
         <v>111.0</v>
@@ -3357,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E87" s="3">
         <v>1805.0</v>
@@ -3374,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E88" s="3">
         <v>675.0</v>
@@ -3391,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E89" s="3">
         <v>245.0</v>
@@ -3408,7 +3414,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E90" s="3">
         <v>5471.0</v>
@@ -3425,7 +3431,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E91" s="3">
         <v>390.0</v>
@@ -3442,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E92" s="3">
         <v>230.0</v>
@@ -3459,7 +3465,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E93" s="3">
         <v>412.0</v>
@@ -3476,7 +3482,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E94" s="3">
         <v>1518.0</v>
@@ -3493,7 +3499,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E95" s="3">
         <v>476.0</v>
@@ -3510,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E96" s="3">
         <v>52512.0</v>
@@ -3527,7 +3533,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E97" s="3">
         <v>980.0</v>
@@ -3544,7 +3550,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E98" s="3">
         <v>19641.0</v>
@@ -3561,7 +3567,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E99" s="3">
         <v>226.0</v>
@@ -3578,7 +3584,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E100" s="3">
         <v>6582.0</v>
@@ -3595,7 +3601,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E101" s="3">
         <v>11.0</v>
@@ -3612,7 +3618,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E102" s="3">
         <v>928.0</v>
@@ -3629,7 +3635,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E103" s="3">
         <v>10036.0</v>
@@ -3646,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E104" s="3">
         <v>25365.0</v>
@@ -3663,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E105" s="3">
         <v>440.0</v>
@@ -3680,7 +3686,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E106" s="3">
         <v>1164.0</v>
@@ -3697,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="3">
         <v>91248.0</v>
@@ -3714,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E108" s="3">
         <v>3767.0</v>
@@ -3731,7 +3737,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" s="3">
         <v>23152.0</v>
@@ -3748,7 +3754,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="3">
         <v>7710.0</v>
@@ -3765,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E111" s="3">
         <v>392.0</v>
@@ -3782,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E112" s="3">
         <v>328.0</v>
@@ -3799,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E113" s="3">
         <v>5735.0</v>
@@ -3816,7 +3822,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E114" s="3">
         <v>5901.0</v>
@@ -3833,7 +3839,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E115" s="3">
         <v>394.0</v>
@@ -3850,7 +3856,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E116" s="3">
         <v>1805.0</v>
@@ -3867,7 +3873,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E117" s="3">
         <v>13484.0</v>
@@ -3884,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E118" s="3">
         <v>222.0</v>
@@ -3901,7 +3907,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E119" s="3">
         <v>1112.0</v>
@@ -3918,7 +3924,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E120" s="3">
         <v>8092.0</v>
@@ -3952,7 +3958,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E122" s="3">
         <v>2264.0</v>
@@ -3986,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E124" s="3">
         <v>1014.0</v>
@@ -4003,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E125" s="3">
         <v>26076.0</v>
@@ -4020,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E126" s="3">
         <v>8196.0</v>
@@ -4054,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E128" s="3">
         <v>226.0</v>
@@ -4088,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E130" s="3">
         <v>368.0</v>
@@ -4122,7 +4128,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E132" s="3">
         <v>9176.0</v>
@@ -4156,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E134" s="3">
         <v>9814.0</v>
@@ -4190,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E136" s="3">
         <v>1188.0</v>
@@ -4207,7 +4213,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E137" s="3">
         <v>368.0</v>
@@ -4224,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E138" s="3">
         <v>4500.0</v>
@@ -4241,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E139" s="3">
         <v>9176.0</v>
@@ -4258,7 +4264,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E140" s="3">
         <v>16911.0</v>
@@ -4292,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E142" s="3">
         <v>1188.0</v>
@@ -4326,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E144" s="3">
         <v>23439.0</v>
@@ -4360,7 +4366,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E146" s="3">
         <v>928.0</v>
@@ -4377,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E147" s="3">
         <v>20.0</v>
@@ -4411,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E149" s="3">
         <v>1157.0</v>
@@ -4445,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E151" s="3">
         <v>111.0</v>
@@ -4530,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E156" s="3">
         <v>15444.0</v>
@@ -4564,7 +4570,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E158" s="3">
         <v>11585.0</v>
@@ -4581,7 +4587,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E159" s="3">
         <v>15882.0</v>
@@ -4615,7 +4621,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E161" s="3">
         <v>14018.0</v>
@@ -4649,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E163" s="3">
         <v>318.0</v>
@@ -4666,7 +4672,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E164" s="3">
         <v>18692.0</v>
@@ -4683,7 +4689,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E165" s="3">
         <v>8436.0</v>
@@ -4717,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E167" s="3">
         <v>5707.0</v>
@@ -4751,7 +4757,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E169" s="3">
         <v>6582.0</v>
@@ -4785,7 +4791,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E171" s="3">
         <v>928.0</v>
@@ -4819,7 +4825,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E173" s="3">
         <v>31221.0</v>
@@ -4853,7 +4859,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E175" s="3">
         <v>2264.0</v>
@@ -4887,7 +4893,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E177" s="3">
         <v>1164.0</v>
@@ -4921,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E179" s="3">
         <v>226.0</v>
@@ -4938,7 +4944,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E180" s="3">
         <v>20.0</v>
@@ -4955,7 +4961,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E181" s="3">
         <v>6592.0</v>
@@ -4972,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E182" s="3">
         <v>1157.0</v>
@@ -4989,7 +4995,7 @@
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E183" s="3">
         <v>368.0</v>
@@ -5006,7 +5012,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E184" s="3">
         <v>111.0</v>
@@ -5023,7 +5029,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E185" s="3">
         <v>1500.0</v>
@@ -5057,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E187" s="3">
         <v>12569.0</v>
@@ -5091,7 +5097,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E189" s="3">
         <v>2161.0</v>
@@ -5125,7 +5131,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E191" s="3">
         <v>792.0</v>
@@ -5159,7 +5165,7 @@
         <v>6</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E193" s="3">
         <v>18878.0</v>
@@ -5193,7 +5199,7 @@
         <v>6</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E195" s="3">
         <v>3709.0</v>
@@ -5210,7 +5216,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E196" s="3">
         <v>928.0</v>
@@ -5227,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E197" s="3">
         <v>980.0</v>
@@ -5244,7 +5250,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E198" s="3">
         <v>18846.0</v>
@@ -5261,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E199" s="3">
         <v>85276.0</v>
@@ -5278,7 +5284,7 @@
         <v>6</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E200" s="3">
         <v>6582.0</v>
@@ -5295,7 +5301,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E201" s="3">
         <v>22678.0</v>
@@ -5312,7 +5318,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E202" s="3">
         <v>220.0</v>
@@ -5329,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E203" s="3">
         <v>78530.0</v>
@@ -5346,7 +5352,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E204" s="3">
         <v>5561.0</v>
@@ -5363,7 +5369,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E205" s="3">
         <v>22122.0</v>
@@ -5380,7 +5386,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E206" s="3">
         <v>10253.0</v>
@@ -5397,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E207" s="3">
         <v>249760.0</v>
@@ -5414,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E208" s="3">
         <v>2587.0</v>
@@ -5431,7 +5437,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E209" s="3">
         <v>1188.0</v>
@@ -5448,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E210" s="3">
         <v>76755.0</v>
@@ -5465,7 +5471,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E211" s="3">
         <v>31646.0</v>
@@ -5482,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E212" s="3">
         <v>29827.0</v>
@@ -5499,7 +5505,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E213" s="3">
         <v>928.0</v>
@@ -5533,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E215" s="3">
         <v>17811.0</v>
@@ -5550,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E216" s="3">
         <v>2264.0</v>
@@ -5567,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E217" s="3">
         <v>215755.0</v>
@@ -5584,7 +5590,7 @@
         <v>6</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E218" s="3">
         <v>1164.0</v>
@@ -5618,7 +5624,7 @@
         <v>6</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E220" s="3">
         <v>1014.0</v>
@@ -5652,7 +5658,7 @@
         <v>6</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E222" s="3">
         <v>4500.0</v>
@@ -5686,7 +5692,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E224" s="3">
         <v>19740.0</v>
@@ -5720,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E226" s="3">
         <v>226.0</v>
@@ -5737,7 +5743,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E227" s="3">
         <v>8127.0</v>
@@ -5754,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E228" s="3">
         <v>1188.0</v>
@@ -5771,7 +5777,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E229" s="3">
         <v>1334.0</v>
@@ -5788,7 +5794,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E230" s="3">
         <v>928.0</v>
@@ -5805,7 +5811,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E231" s="3">
         <v>16911.0</v>
@@ -5822,7 +5828,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E232" s="3">
         <v>1188.0</v>
@@ -5839,7 +5845,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E233" s="3">
         <v>3488.0</v>
@@ -5856,7 +5862,7 @@
         <v>6</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E234" s="3">
         <v>928.0</v>
@@ -5873,7 +5879,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E235" s="3">
         <v>380.0</v>
@@ -5890,7 +5896,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E236" s="3">
         <v>6870.0</v>
@@ -5907,7 +5913,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E237" s="3">
         <v>9073.0</v>
@@ -5924,7 +5930,7 @@
         <v>6</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E238" s="3">
         <v>10288.0</v>
@@ -5941,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E239" s="3">
         <v>1609.0</v>
@@ -5975,7 +5981,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E241" s="3">
         <v>1020.0</v>
@@ -6009,7 +6015,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E243" s="3">
         <v>9850.0</v>
@@ -6077,7 +6083,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E247" s="3">
         <v>4788.0</v>
@@ -6094,7 +6100,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E248" s="3">
         <v>4784.0</v>
@@ -6111,7 +6117,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E249" s="3">
         <v>12041.0</v>
@@ -6145,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E251" s="3">
         <v>116154.0</v>
@@ -6162,7 +6168,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E252" s="3">
         <v>334770.0</v>
@@ -6179,7 +6185,7 @@
         <v>6</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E253" s="3">
         <v>2756.0</v>
@@ -6196,7 +6202,7 @@
         <v>6</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E254" s="3">
         <v>48910.0</v>
@@ -6213,7 +6219,7 @@
         <v>6</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E255" s="3">
         <v>13318.0</v>
@@ -6230,7 +6236,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E256" s="3">
         <v>27513.0</v>
@@ -6247,7 +6253,7 @@
         <v>6</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E257" s="3">
         <v>14174.0</v>
@@ -6264,7 +6270,7 @@
         <v>6</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E258" s="3">
         <v>15480.0</v>
@@ -6315,7 +6321,7 @@
         <v>6</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E261" s="3">
         <v>9290.0</v>
@@ -6332,7 +6338,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E262" s="3">
         <v>85.0</v>
@@ -6349,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E263" s="3">
         <v>3767.0</v>
@@ -6553,7 +6559,7 @@
         <v>6</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E275" s="3">
         <v>15046.0</v>
@@ -6570,7 +6576,7 @@
         <v>6</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E276" s="3">
         <v>20.0</v>
@@ -6587,7 +6593,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E277" s="3">
         <v>1157.0</v>
@@ -6604,7 +6610,7 @@
         <v>6</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E278" s="3">
         <v>111.0</v>
@@ -6621,7 +6627,7 @@
         <v>6</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E279" s="3">
         <v>928.0</v>
@@ -6638,7 +6644,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E280" s="3">
         <v>6582.0</v>
@@ -6655,7 +6661,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E281" s="3">
         <v>2264.0</v>
@@ -6672,7 +6678,7 @@
         <v>6</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E282" s="3">
         <v>8399.0</v>
@@ -6689,7 +6695,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E283" s="3">
         <v>1164.0</v>
@@ -6706,7 +6712,7 @@
         <v>6</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E284" s="3">
         <v>2250.0</v>
@@ -6723,7 +6729,7 @@
         <v>6</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E285" s="3">
         <v>11269.0</v>
@@ -6740,7 +6746,7 @@
         <v>6</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E286" s="3">
         <v>226.0</v>
@@ -6757,7 +6763,7 @@
         <v>6</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E287" s="3">
         <v>682.0</v>
@@ -6774,7 +6780,7 @@
         <v>6</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E288" s="3">
         <v>11170.0</v>
@@ -6791,7 +6797,7 @@
         <v>6</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E289" s="3">
         <v>2233.0</v>
@@ -6808,7 +6814,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E290" s="3">
         <v>1014.0</v>
@@ -6825,7 +6831,7 @@
         <v>6</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E291" s="3">
         <v>725.0</v>
@@ -6842,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E292" s="3">
         <v>16454.0</v>
@@ -6859,7 +6865,7 @@
         <v>6</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E293" s="3">
         <v>8331.0</v>
@@ -6995,7 +7001,7 @@
         <v>6</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E301" s="3">
         <v>20.0</v>
@@ -7012,7 +7018,7 @@
         <v>6</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E302" s="3">
         <v>111.0</v>
@@ -7029,7 +7035,7 @@
         <v>6</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E303" s="3">
         <v>1157.0</v>
@@ -7165,7 +7171,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E311" s="3">
         <v>6999.0</v>
@@ -7182,7 +7188,7 @@
         <v>6</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E312" s="3">
         <v>4498.0</v>
@@ -7199,7 +7205,7 @@
         <v>6</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E313" s="3">
         <v>980.0</v>
@@ -7216,7 +7222,7 @@
         <v>6</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E314" s="3">
         <v>226.0</v>
@@ -7233,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E315" s="3">
         <v>4313.0</v>
@@ -7250,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E316" s="3">
         <v>2264.0</v>
@@ -7267,7 +7273,7 @@
         <v>6</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E317" s="3">
         <v>928.0</v>
@@ -7284,7 +7290,7 @@
         <v>6</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E318" s="3">
         <v>6582.0</v>
@@ -7301,7 +7307,7 @@
         <v>6</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E319" s="3">
         <v>20.0</v>
@@ -7318,7 +7324,7 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E320" s="3">
         <v>111.0</v>
@@ -7335,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E321" s="3">
         <v>1157.0</v>
@@ -7352,7 +7358,7 @@
         <v>6</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E322" s="3">
         <v>6.0</v>
@@ -7369,7 +7375,7 @@
         <v>6</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E323" s="3">
         <v>426.0</v>
@@ -7386,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E324" s="3">
         <v>314.0</v>
@@ -7403,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E325" s="3">
         <v>6119.0</v>
@@ -7420,7 +7426,7 @@
         <v>6</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E326" s="3">
         <v>510.0</v>
@@ -7437,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E327" s="3">
         <v>13494.0</v>
@@ -7454,7 +7460,7 @@
         <v>6</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E328" s="3">
         <v>1204.0</v>
@@ -7658,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E340" s="3">
         <v>8394.0</v>
@@ -7726,7 +7732,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E344" s="3">
         <v>20394.0</v>
@@ -7811,7 +7817,7 @@
         <v>6</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E349" s="3">
         <v>2250.0</v>
@@ -7828,7 +7834,7 @@
         <v>6</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E350" s="3">
         <v>2091.0</v>
@@ -7845,7 +7851,7 @@
         <v>6</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E351" s="3">
         <v>33340.0</v>
@@ -7862,7 +7868,7 @@
         <v>6</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E352" s="3">
         <v>6320.0</v>
@@ -7879,7 +7885,7 @@
         <v>6</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E353" s="3">
         <v>928.0</v>
@@ -7896,7 +7902,7 @@
         <v>6</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E354" s="3">
         <v>1188.0</v>
@@ -7913,7 +7919,7 @@
         <v>6</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E355" s="3">
         <v>1014.0</v>
@@ -7930,7 +7936,7 @@
         <v>6</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E356" s="3">
         <v>226.0</v>
@@ -7947,7 +7953,7 @@
         <v>6</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E357" s="3">
         <v>2264.0</v>
@@ -7964,7 +7970,7 @@
         <v>6</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E358" s="3">
         <v>900.0</v>
@@ -7981,7 +7987,7 @@
         <v>6</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E359" s="3">
         <v>12223.0</v>
@@ -7998,7 +8004,7 @@
         <v>6</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E360" s="3">
         <v>928.0</v>
@@ -8015,7 +8021,7 @@
         <v>6</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E361" s="3">
         <v>6582.0</v>
@@ -8032,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E362" s="3">
         <v>20.0</v>
@@ -8049,7 +8055,7 @@
         <v>6</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E363" s="3">
         <v>111.0</v>
@@ -8066,7 +8072,7 @@
         <v>6</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E364" s="3">
         <v>1157.0</v>
@@ -8134,7 +8140,7 @@
         <v>6</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E368" s="3">
         <v>1204.0</v>
@@ -8151,7 +8157,7 @@
         <v>6</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E369" s="3">
         <v>5901.0</v>
@@ -8287,7 +8293,7 @@
         <v>6</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E377" s="3">
         <v>7025.0</v>
@@ -8304,7 +8310,7 @@
         <v>6</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E378" s="3">
         <v>8639.0</v>
@@ -8321,7 +8327,7 @@
         <v>6</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E379" s="3">
         <v>9567.0</v>
@@ -8338,7 +8344,7 @@
         <v>6</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E380" s="3">
         <v>13127.0</v>
@@ -8355,7 +8361,7 @@
         <v>6</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E381" s="3">
         <v>17187.0</v>
@@ -8457,7 +8463,7 @@
         <v>6</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E387" s="3">
         <v>9567.0</v>
@@ -8474,7 +8480,7 @@
         <v>6</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E388" s="3">
         <v>3767.0</v>
@@ -8491,7 +8497,7 @@
         <v>6</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E389" s="3">
         <v>928.0</v>
@@ -8508,7 +8514,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E390" s="3">
         <v>15046.0</v>
@@ -8525,7 +8531,7 @@
         <v>6</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E391" s="3">
         <v>1188.0</v>
@@ -8542,7 +8548,7 @@
         <v>6</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E392" s="3">
         <v>11991.0</v>
@@ -8559,7 +8565,7 @@
         <v>6</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E393" s="3">
         <v>226.0</v>
@@ -8576,7 +8582,7 @@
         <v>6</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E394" s="3">
         <v>2264.0</v>
@@ -8593,7 +8599,7 @@
         <v>6</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E395" s="3">
         <v>928.0</v>
@@ -8610,7 +8616,7 @@
         <v>6</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E396" s="3">
         <v>220.0</v>
@@ -8627,7 +8633,7 @@
         <v>6</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E397" s="3">
         <v>5561.0</v>
@@ -8644,7 +8650,7 @@
         <v>6</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E398" s="3">
         <v>6582.0</v>
@@ -8661,7 +8667,7 @@
         <v>6</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E399" s="3">
         <v>20.0</v>
@@ -8678,7 +8684,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E400" s="3">
         <v>111.0</v>
@@ -8695,7 +8701,7 @@
         <v>6</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E401" s="3">
         <v>1157.0</v>
@@ -8848,7 +8854,7 @@
         <v>6</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E410" s="3">
         <v>1014.0</v>
@@ -8865,7 +8871,7 @@
         <v>6</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E411" s="3">
         <v>1204.0</v>
@@ -8882,7 +8888,7 @@
         <v>6</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E412" s="3">
         <v>9397.0</v>
@@ -9001,7 +9007,7 @@
         <v>6</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E419" s="3">
         <v>250.0</v>
@@ -9052,7 +9058,7 @@
         <v>6</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E422" s="3">
         <v>333.0</v>
@@ -9069,7 +9075,7 @@
         <v>6</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E423" s="3">
         <v>5751.0</v>
@@ -9086,7 +9092,7 @@
         <v>6</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E424" s="3">
         <v>11192.0</v>
@@ -9103,7 +9109,7 @@
         <v>6</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E425" s="3">
         <v>17187.0</v>
@@ -9205,7 +9211,7 @@
         <v>6</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E431" s="3">
         <v>3525.0</v>
@@ -9222,7 +9228,7 @@
         <v>6</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E432" s="3">
         <v>1089.0</v>
@@ -9239,7 +9245,7 @@
         <v>6</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E433" s="3">
         <v>20676.0</v>
@@ -9256,7 +9262,7 @@
         <v>6</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E434" s="3">
         <v>928.0</v>
@@ -9273,7 +9279,7 @@
         <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E435" s="3">
         <v>1188.0</v>
@@ -9290,7 +9296,7 @@
         <v>6</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E436" s="3">
         <v>3525.0</v>
@@ -9307,7 +9313,7 @@
         <v>6</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E437" s="3">
         <v>173.0</v>
@@ -9324,7 +9330,7 @@
         <v>6</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E438" s="3">
         <v>9652.0</v>
@@ -9341,7 +9347,7 @@
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E439" s="3">
         <v>980.0</v>
@@ -9358,7 +9364,7 @@
         <v>6</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E440" s="3">
         <v>226.0</v>
@@ -9375,7 +9381,7 @@
         <v>6</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E441" s="3">
         <v>568.0</v>
@@ -9392,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E442" s="3">
         <v>11170.0</v>
@@ -9409,7 +9415,7 @@
         <v>6</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E443" s="3">
         <v>1204.0</v>
@@ -9426,7 +9432,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E444" s="3">
         <v>2264.0</v>
@@ -9443,7 +9449,7 @@
         <v>6</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E445" s="3">
         <v>6582.0</v>
@@ -9460,7 +9466,7 @@
         <v>6</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E446" s="3">
         <v>1080.0</v>
@@ -9477,7 +9483,7 @@
         <v>6</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E447" s="3">
         <v>611.0</v>
@@ -9494,7 +9500,7 @@
         <v>6</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E448" s="3">
         <v>726.0</v>
@@ -9511,7 +9517,7 @@
         <v>6</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E449" s="3">
         <v>463.0</v>
@@ -9528,7 +9534,7 @@
         <v>6</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E450" s="3">
         <v>20.0</v>
@@ -9545,7 +9551,7 @@
         <v>6</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E451" s="3">
         <v>111.0</v>
@@ -9562,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E452" s="3">
         <v>1157.0</v>
@@ -9579,7 +9585,7 @@
         <v>6</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E453" s="3">
         <v>928.0</v>
@@ -9681,7 +9687,7 @@
         <v>6</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E459" s="3">
         <v>1022.0</v>
@@ -9698,7 +9704,7 @@
         <v>6</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E460" s="3">
         <v>888.0</v>
@@ -9732,7 +9738,7 @@
         <v>6</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E462" s="3">
         <v>1125.0</v>
@@ -9749,7 +9755,7 @@
         <v>6</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E463" s="3">
         <v>14185.0</v>
@@ -9766,7 +9772,7 @@
         <v>6</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E464" s="3">
         <v>718.0</v>
@@ -9783,7 +9789,7 @@
         <v>6</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E465" s="3">
         <v>824.0</v>
@@ -9851,7 +9857,7 @@
         <v>6</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E469" s="3">
         <v>2220.0</v>
@@ -9868,7 +9874,7 @@
         <v>6</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E470" s="3">
         <v>363.0</v>
@@ -9885,7 +9891,7 @@
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E471" s="3">
         <v>12603.0</v>
@@ -9902,7 +9908,7 @@
         <v>6</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E472" s="3">
         <v>1164.0</v>
@@ -9919,7 +9925,7 @@
         <v>6</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E473" s="3">
         <v>463.0</v>
@@ -9936,7 +9942,7 @@
         <v>6</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E474" s="3">
         <v>415.0</v>
@@ -9953,7 +9959,7 @@
         <v>6</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E475" s="3">
         <v>611.0</v>
@@ -9970,7 +9976,7 @@
         <v>6</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E476" s="3">
         <v>1810.0</v>
@@ -9987,7 +9993,7 @@
         <v>6</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E477" s="3">
         <v>485.0</v>
@@ -10004,7 +10010,7 @@
         <v>6</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E478" s="3">
         <v>390.0</v>
@@ -10021,7 +10027,7 @@
         <v>6</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E479" s="3">
         <v>485.0</v>
@@ -10038,7 +10044,7 @@
         <v>6</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E480" s="3">
         <v>269.0</v>
@@ -10055,7 +10061,7 @@
         <v>6</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E481" s="3">
         <v>412.0</v>
@@ -10072,7 +10078,7 @@
         <v>6</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E482" s="3">
         <v>444.0</v>
@@ -10089,7 +10095,7 @@
         <v>6</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E483" s="3">
         <v>390.0</v>
@@ -10106,7 +10112,7 @@
         <v>6</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E484" s="3">
         <v>285.0</v>
@@ -10123,7 +10129,7 @@
         <v>6</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E485" s="3">
         <v>970.0</v>
@@ -10140,7 +10146,7 @@
         <v>6</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E486" s="3">
         <v>705.0</v>
@@ -10157,7 +10163,7 @@
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E487" s="3">
         <v>444.0</v>
@@ -10174,7 +10180,7 @@
         <v>6</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E488" s="3">
         <v>444.0</v>
@@ -10191,7 +10197,7 @@
         <v>6</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E489" s="3">
         <v>427.0</v>
@@ -10208,7 +10214,7 @@
         <v>6</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E490" s="3">
         <v>655.0</v>
@@ -10225,7 +10231,7 @@
         <v>6</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E491" s="3">
         <v>2865.0</v>
@@ -10242,7 +10248,7 @@
         <v>6</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E492" s="3">
         <v>511.0</v>
@@ -10259,7 +10265,7 @@
         <v>6</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E493" s="3">
         <v>1022.0</v>
@@ -10276,7 +10282,7 @@
         <v>6</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E494" s="3">
         <v>2264.0</v>
@@ -10293,7 +10299,7 @@
         <v>6</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E495" s="3">
         <v>4094.0</v>
@@ -10310,7 +10316,7 @@
         <v>6</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E496" s="3">
         <v>800.0</v>
@@ -10327,7 +10333,7 @@
         <v>6</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E497" s="3">
         <v>366.0</v>
@@ -10344,7 +10350,7 @@
         <v>6</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E498" s="3">
         <v>370.0</v>
@@ -10361,7 +10367,7 @@
         <v>6</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E499" s="3">
         <v>2220.0</v>
@@ -10378,7 +10384,7 @@
         <v>6</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E500" s="3">
         <v>4515.0</v>
@@ -10395,7 +10401,7 @@
         <v>6</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E501" s="3">
         <v>2044.0</v>
@@ -10412,7 +10418,7 @@
         <v>6</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E502" s="3">
         <v>370.0</v>
@@ -10429,7 +10435,7 @@
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E503" s="3">
         <v>375.0</v>
@@ -10446,7 +10452,7 @@
         <v>6</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E504" s="3">
         <v>381.0</v>
@@ -10463,7 +10469,7 @@
         <v>6</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E505" s="3">
         <v>357.0</v>
@@ -10480,7 +10486,7 @@
         <v>6</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E506" s="3">
         <v>245.0</v>
@@ -10497,7 +10503,7 @@
         <v>6</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E507" s="3">
         <v>246.0</v>
@@ -10514,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E508" s="3">
         <v>20.0</v>
@@ -10531,7 +10537,7 @@
         <v>6</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E509" s="3">
         <v>111.0</v>
@@ -10548,7 +10554,7 @@
         <v>6</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E510" s="3">
         <v>1157.0</v>
@@ -10565,7 +10571,7 @@
         <v>6</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E511" s="3">
         <v>12215.0</v>
@@ -10582,7 +10588,7 @@
         <v>6</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E512" s="3">
         <v>928.0</v>
@@ -10599,7 +10605,7 @@
         <v>6</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E513" s="3">
         <v>6582.0</v>
@@ -10616,7 +10622,7 @@
         <v>6</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E514" s="3">
         <v>2060.0</v>
@@ -10633,7 +10639,7 @@
         <v>6</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E515" s="3">
         <v>2000.0</v>
@@ -10650,7 +10656,7 @@
         <v>6</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E516" s="3">
         <v>611.0</v>
@@ -10667,7 +10673,7 @@
         <v>6</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E517" s="3">
         <v>366.0</v>
@@ -10684,7 +10690,7 @@
         <v>6</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E518" s="3">
         <v>3525.0</v>
@@ -10701,7 +10707,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E519" s="3">
         <v>2315.0</v>
@@ -10718,7 +10724,7 @@
         <v>6</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E520" s="3">
         <v>381.0</v>
@@ -10735,7 +10741,7 @@
         <v>6</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E521" s="3">
         <v>354.0</v>
@@ -10752,7 +10758,7 @@
         <v>6</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E522" s="3">
         <v>485.0</v>
@@ -10769,7 +10775,7 @@
         <v>6</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E523" s="3">
         <v>485.0</v>
@@ -10786,7 +10792,7 @@
         <v>6</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E524" s="3">
         <v>381.0</v>
@@ -10803,7 +10809,7 @@
         <v>6</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E525" s="3">
         <v>1830.0</v>
@@ -10820,7 +10826,7 @@
         <v>6</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E526" s="3">
         <v>2000.0</v>
@@ -10837,7 +10843,7 @@
         <v>6</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E527" s="3">
         <v>1022.0</v>
@@ -10854,7 +10860,7 @@
         <v>6</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E528" s="3">
         <v>362.0</v>
@@ -10871,7 +10877,7 @@
         <v>6</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E529" s="3">
         <v>1850.0</v>
@@ -10888,7 +10894,7 @@
         <v>6</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E530" s="3">
         <v>1875.0</v>
@@ -10905,7 +10911,7 @@
         <v>6</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E531" s="3">
         <v>375.0</v>
@@ -10922,7 +10928,7 @@
         <v>6</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E532" s="3">
         <v>1560.0</v>
@@ -10939,7 +10945,7 @@
         <v>6</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E533" s="3">
         <v>2820.0</v>
@@ -10956,7 +10962,7 @@
         <v>6</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E534" s="3">
         <v>3275.0</v>
@@ -10973,7 +10979,7 @@
         <v>6</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E535" s="3">
         <v>412.0</v>
@@ -10990,7 +10996,7 @@
         <v>6</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E536" s="3">
         <v>1410.0</v>
@@ -11007,7 +11013,7 @@
         <v>6</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E537" s="3">
         <v>381.0</v>
@@ -11024,7 +11030,7 @@
         <v>6</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E538" s="3">
         <v>3055.0</v>
@@ -11041,7 +11047,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E539" s="3">
         <v>611.0</v>
@@ -11058,7 +11064,7 @@
         <v>6</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E540" s="3">
         <v>2220.0</v>
@@ -11075,7 +11081,7 @@
         <v>6</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E541" s="3">
         <v>1875.0</v>
@@ -11092,7 +11098,7 @@
         <v>6</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E542" s="3">
         <v>1222.0</v>
@@ -11109,7 +11115,7 @@
         <v>6</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E543" s="3">
         <v>254.0</v>
@@ -11126,7 +11132,7 @@
         <v>6</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E544" s="3">
         <v>366.0</v>
@@ -11143,7 +11149,7 @@
         <v>6</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E545" s="3">
         <v>366.0</v>
@@ -11160,7 +11166,7 @@
         <v>6</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E546" s="3">
         <v>390.0</v>
@@ -11177,7 +11183,7 @@
         <v>6</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E547" s="3">
         <v>248.0</v>
@@ -11194,7 +11200,7 @@
         <v>6</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E548" s="3">
         <v>444.0</v>
@@ -11211,7 +11217,7 @@
         <v>6</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E549" s="3">
         <v>444.0</v>
@@ -11228,7 +11234,7 @@
         <v>6</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E550" s="3">
         <v>254.0</v>
@@ -11245,7 +11251,7 @@
         <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E551" s="3">
         <v>294.0</v>
@@ -11262,7 +11268,7 @@
         <v>6</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E552" s="3">
         <v>294.0</v>
@@ -11279,7 +11285,7 @@
         <v>6</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E553" s="3">
         <v>349.0</v>
@@ -11296,7 +11302,7 @@
         <v>6</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E554" s="3">
         <v>4498.0</v>
@@ -11449,7 +11455,7 @@
         <v>6</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E563" s="3">
         <v>17127.0</v>
@@ -11466,7 +11472,7 @@
         <v>6</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E564" s="3">
         <v>19953.0</v>
@@ -11483,7 +11489,7 @@
         <v>6</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E565" s="3">
         <v>201.0</v>
@@ -11500,7 +11506,7 @@
         <v>6</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E566" s="3">
         <v>6888.0</v>
@@ -11517,7 +11523,7 @@
         <v>6</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E567" s="3">
         <v>18746.0</v>
@@ -11534,7 +11540,7 @@
         <v>6</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E568" s="3">
         <v>11400.0</v>
@@ -11551,7 +11557,7 @@
         <v>6</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E569" s="3">
         <v>14764.0</v>
@@ -11568,7 +11574,7 @@
         <v>6</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E570" s="3">
         <v>7097.0</v>
@@ -11585,7 +11591,7 @@
         <v>6</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E571" s="3">
         <v>450.0</v>
@@ -11602,7 +11608,7 @@
         <v>6</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E572" s="3">
         <v>44.0</v>
@@ -11619,7 +11625,7 @@
         <v>6</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E573" s="3">
         <v>1257.0</v>
@@ -11636,7 +11642,7 @@
         <v>6</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E574" s="3">
         <v>16830.0</v>
@@ -11653,7 +11659,7 @@
         <v>6</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E575" s="3">
         <v>928.0</v>
@@ -11670,7 +11676,7 @@
         <v>6</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E576" s="3">
         <v>4313.0</v>
@@ -11687,7 +11693,7 @@
         <v>6</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E577" s="3">
         <v>1188.0</v>
@@ -11789,7 +11795,7 @@
         <v>6</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E583" s="3">
         <v>980.0</v>
@@ -11840,7 +11846,7 @@
         <v>6</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E586" s="3">
         <v>226.0</v>
@@ -11857,7 +11863,7 @@
         <v>6</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E587" s="3">
         <v>2264.0</v>
@@ -11874,7 +11880,7 @@
         <v>6</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E588" s="3">
         <v>3275.0</v>
@@ -11891,7 +11897,7 @@
         <v>6</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E589" s="3">
         <v>366.0</v>
@@ -11908,7 +11914,7 @@
         <v>6</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E590" s="3">
         <v>368.0</v>
@@ -11925,7 +11931,7 @@
         <v>6</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E591" s="3">
         <v>412.0</v>
@@ -11942,7 +11948,7 @@
         <v>6</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E592" s="3">
         <v>762.0</v>
@@ -11959,7 +11965,7 @@
         <v>6</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E593" s="3">
         <v>611.0</v>
@@ -11976,7 +11982,7 @@
         <v>6</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E594" s="3">
         <v>540.0</v>
@@ -11993,7 +11999,7 @@
         <v>6</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E595" s="3">
         <v>375.0</v>
@@ -12010,7 +12016,7 @@
         <v>6</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E596" s="3">
         <v>366.0</v>
@@ -12027,7 +12033,7 @@
         <v>6</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E597" s="3">
         <v>366.0</v>
@@ -12044,7 +12050,7 @@
         <v>6</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E598" s="3">
         <v>1940.0</v>
@@ -12061,7 +12067,7 @@
         <v>6</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E599" s="3">
         <v>363.0</v>
@@ -12078,7 +12084,7 @@
         <v>6</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E600" s="3">
         <v>354.0</v>
@@ -12095,7 +12101,7 @@
         <v>6</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E601" s="3">
         <v>3275.0</v>
@@ -12112,7 +12118,7 @@
         <v>6</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E602" s="3">
         <v>306.0</v>
@@ -12129,7 +12135,7 @@
         <v>6</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E603" s="3">
         <v>244.0</v>
@@ -12146,7 +12152,7 @@
         <v>6</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E604" s="3">
         <v>390.0</v>
@@ -12163,7 +12169,7 @@
         <v>6</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E605" s="3">
         <v>390.0</v>
@@ -12180,7 +12186,7 @@
         <v>6</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E606" s="3">
         <v>269.0</v>
@@ -12197,7 +12203,7 @@
         <v>6</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E607" s="3">
         <v>655.0</v>
@@ -12214,7 +12220,7 @@
         <v>6</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E608" s="3">
         <v>242.0</v>
@@ -12231,7 +12237,7 @@
         <v>6</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E609" s="3">
         <v>390.0</v>
@@ -12248,7 +12254,7 @@
         <v>6</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E610" s="3">
         <v>250.0</v>
@@ -12265,7 +12271,7 @@
         <v>6</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E611" s="3">
         <v>2425.0</v>
@@ -12282,7 +12288,7 @@
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E612" s="3">
         <v>294.0</v>
@@ -12299,7 +12305,7 @@
         <v>6</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E613" s="3">
         <v>306.0</v>
@@ -12316,7 +12322,7 @@
         <v>6</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E614" s="3">
         <v>1815.0</v>
@@ -12333,7 +12339,7 @@
         <v>6</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E615" s="3">
         <v>362.0</v>
@@ -12350,7 +12356,7 @@
         <v>6</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E616" s="3">
         <v>375.0</v>
@@ -12367,7 +12373,7 @@
         <v>6</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E617" s="3">
         <v>1310.0</v>
@@ -12384,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E618" s="3">
         <v>269.0</v>
@@ -12401,7 +12407,7 @@
         <v>6</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E619" s="3">
         <v>400.0</v>
@@ -12418,7 +12424,7 @@
         <v>6</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E620" s="3">
         <v>390.0</v>
@@ -12435,7 +12441,7 @@
         <v>6</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E621" s="3">
         <v>276.0</v>
@@ -12452,7 +12458,7 @@
         <v>6</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E622" s="3">
         <v>359.0</v>
@@ -12469,7 +12475,7 @@
         <v>6</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E623" s="3">
         <v>2315.0</v>
@@ -12486,7 +12492,7 @@
         <v>6</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E624" s="3">
         <v>705.0</v>
@@ -12503,7 +12509,7 @@
         <v>6</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E625" s="3">
         <v>2315.0</v>
@@ -12520,7 +12526,7 @@
         <v>6</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E626" s="3">
         <v>366.0</v>
@@ -12537,7 +12543,7 @@
         <v>6</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E627" s="3">
         <v>611.0</v>
@@ -12554,7 +12560,7 @@
         <v>6</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E628" s="3">
         <v>375.0</v>
@@ -12571,7 +12577,7 @@
         <v>6</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E629" s="3">
         <v>370.0</v>
@@ -12588,7 +12594,7 @@
         <v>6</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E630" s="3">
         <v>400.0</v>
@@ -12605,7 +12611,7 @@
         <v>6</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E631" s="3">
         <v>728.0</v>
@@ -12622,7 +12628,7 @@
         <v>6</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E632" s="3">
         <v>244.0</v>
@@ -12639,7 +12645,7 @@
         <v>6</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E633" s="3">
         <v>427.0</v>
@@ -12656,7 +12662,7 @@
         <v>6</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E634" s="3">
         <v>246.0</v>
@@ -12673,7 +12679,7 @@
         <v>6</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E635" s="3">
         <v>245.0</v>
@@ -12690,7 +12696,7 @@
         <v>6</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E636" s="3">
         <v>485.0</v>
@@ -12707,7 +12713,7 @@
         <v>6</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E637" s="3">
         <v>540.0</v>
@@ -12724,7 +12730,7 @@
         <v>6</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E638" s="3">
         <v>655.0</v>
@@ -12741,7 +12747,7 @@
         <v>6</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E639" s="3">
         <v>366.0</v>
@@ -12758,7 +12764,7 @@
         <v>6</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E640" s="3">
         <v>427.0</v>
@@ -12775,7 +12781,7 @@
         <v>6</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E641" s="3">
         <v>390.0</v>
@@ -12792,7 +12798,7 @@
         <v>6</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E642" s="3">
         <v>427.0</v>
@@ -12809,7 +12815,7 @@
         <v>6</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E643" s="3">
         <v>269.0</v>
@@ -12826,7 +12832,7 @@
         <v>6</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E644" s="3">
         <v>444.0</v>
@@ -12843,7 +12849,7 @@
         <v>6</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E645" s="3">
         <v>370.0</v>
@@ -12860,7 +12866,7 @@
         <v>6</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E646" s="3">
         <v>6.0</v>
@@ -12877,7 +12883,7 @@
         <v>6</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E647" s="3">
         <v>426.0</v>
@@ -12894,7 +12900,7 @@
         <v>6</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E648" s="3">
         <v>314.0</v>
@@ -12911,7 +12917,7 @@
         <v>6</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E649" s="3">
         <v>6119.0</v>
@@ -13064,7 +13070,7 @@
         <v>6</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E658" s="3">
         <v>20.0</v>
@@ -13081,7 +13087,7 @@
         <v>6</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E659" s="3">
         <v>111.0</v>
@@ -13098,7 +13104,7 @@
         <v>6</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E660" s="3">
         <v>1157.0</v>
@@ -13115,7 +13121,7 @@
         <v>6</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E661" s="3">
         <v>3801.0</v>
@@ -13132,7 +13138,7 @@
         <v>6</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E662" s="3">
         <v>203.0</v>
@@ -13149,7 +13155,7 @@
         <v>6</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E663" s="3">
         <v>4286.0</v>
@@ -13166,7 +13172,7 @@
         <v>6</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E664" s="3">
         <v>12170.0</v>
@@ -13183,7 +13189,7 @@
         <v>6</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E665" s="3">
         <v>25365.0</v>
@@ -13200,7 +13206,7 @@
         <v>6</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E666" s="3">
         <v>928.0</v>
@@ -13217,7 +13223,7 @@
         <v>6</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E667" s="3">
         <v>6320.0</v>
@@ -13234,7 +13240,7 @@
         <v>6</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E668" s="3">
         <v>222.0</v>
@@ -13251,7 +13257,7 @@
         <v>6</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E669" s="3">
         <v>8092.0</v>
@@ -13268,7 +13274,7 @@
         <v>6</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E670" s="3">
         <v>1188.0</v>
@@ -13285,7 +13291,7 @@
         <v>6</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E671" s="3">
         <v>1805.0</v>
@@ -13302,7 +13308,7 @@
         <v>6</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E672" s="3">
         <v>328.0</v>
@@ -13319,7 +13325,7 @@
         <v>6</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E673" s="3">
         <v>5901.0</v>
@@ -13336,7 +13342,7 @@
         <v>6</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E674" s="3">
         <v>9814.0</v>
@@ -13353,7 +13359,7 @@
         <v>6</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E675" s="3">
         <v>7710.0</v>
@@ -13370,7 +13376,7 @@
         <v>6</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E676" s="3">
         <v>5582.0</v>
@@ -13387,7 +13393,7 @@
         <v>6</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E677" s="3">
         <v>7288.0</v>
@@ -13421,7 +13427,7 @@
         <v>6</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E679" s="3">
         <v>6387.0</v>
@@ -13438,7 +13444,7 @@
         <v>6</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E680" s="3">
         <v>368.0</v>
@@ -13455,7 +13461,7 @@
         <v>6</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E681" s="3">
         <v>9176.0</v>
@@ -13472,7 +13478,7 @@
         <v>6</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E682" s="3">
         <v>3767.0</v>
@@ -13489,7 +13495,7 @@
         <v>6</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E683" s="3">
         <v>19641.0</v>
@@ -13506,7 +13512,7 @@
         <v>6</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E684" s="3">
         <v>1518.0</v>
@@ -13523,7 +13529,7 @@
         <v>6</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E685" s="3">
         <v>52512.0</v>
@@ -13540,7 +13546,7 @@
         <v>6</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E686" s="3">
         <v>675.0</v>
@@ -13557,7 +13563,7 @@
         <v>6</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E687" s="3">
         <v>230.0</v>
@@ -13574,7 +13580,7 @@
         <v>6</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E688" s="3">
         <v>5471.0</v>
@@ -13608,7 +13614,7 @@
         <v>6</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E690" s="3">
         <v>928.0</v>
@@ -13625,7 +13631,7 @@
         <v>6</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E691" s="3">
         <v>928.0</v>
@@ -13693,7 +13699,7 @@
         <v>6</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E695" s="3">
         <v>6582.0</v>
@@ -13710,7 +13716,7 @@
         <v>6</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E696" s="3">
         <v>6582.0</v>
@@ -13727,7 +13733,7 @@
         <v>6</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E697" s="3">
         <v>980.0</v>
@@ -13778,7 +13784,7 @@
         <v>6</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E700" s="3">
         <v>226.0</v>
@@ -13795,7 +13801,7 @@
         <v>6</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E701" s="3">
         <v>1164.0</v>
@@ -13812,7 +13818,7 @@
         <v>6</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E702" s="3">
         <v>1164.0</v>
@@ -13829,7 +13835,7 @@
         <v>6</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E703" s="3">
         <v>2264.0</v>
@@ -13846,7 +13852,7 @@
         <v>6</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E704" s="3">
         <v>1188.0</v>
@@ -13863,7 +13869,7 @@
         <v>6</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E705" s="3">
         <v>928.0</v>
@@ -13880,7 +13886,7 @@
         <v>6</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E706" s="3">
         <v>6316.0</v>
@@ -13965,7 +13971,7 @@
         <v>6</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E711" s="3">
         <v>14731.0</v>
@@ -13982,7 +13988,7 @@
         <v>6</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E712" s="3">
         <v>42965.0</v>
@@ -13999,7 +14005,7 @@
         <v>6</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E713" s="3">
         <v>12078.0</v>
@@ -14016,7 +14022,7 @@
         <v>6</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E714" s="3">
         <v>7368.0</v>
@@ -14033,7 +14039,7 @@
         <v>6</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E715" s="3">
         <v>7368.0</v>
@@ -14050,7 +14056,7 @@
         <v>6</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E716" s="3">
         <v>3709.0</v>
@@ -14084,7 +14090,7 @@
         <v>6</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E718" s="3">
         <v>31194.0</v>
@@ -14101,7 +14107,7 @@
         <v>6</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E719" s="3">
         <v>5931.0</v>
@@ -14169,7 +14175,7 @@
         <v>6</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E723" s="3">
         <v>3295.0</v>
@@ -14186,7 +14192,7 @@
         <v>6</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E724" s="3">
         <v>19749.0</v>
@@ -14203,7 +14209,7 @@
         <v>6</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E725" s="3">
         <v>6923.0</v>
@@ -14288,7 +14294,7 @@
         <v>6</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E730" s="3">
         <v>1125.0</v>
@@ -14305,7 +14311,7 @@
         <v>6</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E731" s="3">
         <v>14185.0</v>
@@ -14424,7 +14430,7 @@
         <v>6</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E738" s="3">
         <v>20.0</v>
@@ -14441,7 +14447,7 @@
         <v>6</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E739" s="3">
         <v>1157.0</v>
@@ -14458,7 +14464,7 @@
         <v>6</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E740" s="3">
         <v>111.0</v>
@@ -14475,7 +14481,7 @@
         <v>6</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E741" s="3">
         <v>6582.0</v>
@@ -14492,7 +14498,7 @@
         <v>6</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E742" s="3">
         <v>928.0</v>
@@ -14509,7 +14515,7 @@
         <v>6</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E743" s="3">
         <v>568.0</v>
@@ -14526,7 +14532,7 @@
         <v>6</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E744" s="3">
         <v>11170.0</v>
@@ -14543,7 +14549,7 @@
         <v>6</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E745" s="3">
         <v>12603.0</v>
@@ -14560,7 +14566,7 @@
         <v>6</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E746" s="3">
         <v>2264.0</v>
@@ -14594,7 +14600,7 @@
         <v>6</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E748" s="3">
         <v>1164.0</v>
@@ -14611,7 +14617,7 @@
         <v>6</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E749" s="3">
         <v>226.0</v>
@@ -14628,7 +14634,7 @@
         <v>6</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E750" s="3">
         <v>1014.0</v>
@@ -14645,7 +14651,7 @@
         <v>6</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E751" s="3">
         <v>1188.0</v>
@@ -14662,7 +14668,7 @@
         <v>6</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E752" s="3">
         <v>928.0</v>
@@ -14679,7 +14685,7 @@
         <v>6</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E753" s="3">
         <v>5825.0</v>
@@ -14696,7 +14702,7 @@
         <v>6</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E754" s="3">
         <v>13127.0</v>
@@ -14798,7 +14804,7 @@
         <v>6</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E760" s="3">
         <v>7608.0</v>
@@ -14815,7 +14821,7 @@
         <v>6</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E761" s="3">
         <v>345.0</v>
@@ -14832,7 +14838,7 @@
         <v>6</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E762" s="3">
         <v>6781.0</v>
@@ -14849,7 +14855,7 @@
         <v>6</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E763" s="3">
         <v>59.0</v>
@@ -14866,7 +14872,7 @@
         <v>6</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E764" s="3">
         <v>4161.0</v>
@@ -14882,8 +14888,8 @@
       <c r="C765" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D765" s="4">
-        <v>7.20122E11</v>
+      <c r="D765" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="E765" s="3">
         <v>200000.0</v>
@@ -14900,7 +14906,7 @@
         <v>6</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E766" s="3">
         <v>20812.0</v>
@@ -14917,7 +14923,7 @@
         <v>6</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E767" s="3">
         <v>4784.0</v>
@@ -14934,7 +14940,7 @@
         <v>6</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E768" s="3">
         <v>15193.0</v>
@@ -14951,7 +14957,7 @@
         <v>6</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E769" s="3">
         <v>16746.0</v>
@@ -14968,7 +14974,7 @@
         <v>6</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E770" s="3">
         <v>8175.0</v>
@@ -14985,7 +14991,7 @@
         <v>6</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E771" s="3">
         <v>19595.0</v>
@@ -15002,7 +15008,7 @@
         <v>6</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E772" s="3">
         <v>996.0</v>
@@ -15019,7 +15025,7 @@
         <v>6</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E773" s="3">
         <v>16493.0</v>
@@ -15087,7 +15093,7 @@
         <v>6</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E777" s="3">
         <v>77.0</v>
@@ -15104,7 +15110,7 @@
         <v>6</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E778" s="3">
         <v>3795.0</v>
@@ -15291,7 +15297,7 @@
         <v>6</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E789" s="3">
         <v>1725.0</v>
@@ -15308,7 +15314,7 @@
         <v>6</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E790" s="3">
         <v>27810.0</v>
@@ -15325,7 +15331,7 @@
         <v>6</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E791" s="3">
         <v>21949.0</v>
@@ -15342,7 +15348,7 @@
         <v>6</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E792" s="3">
         <v>20.0</v>
@@ -15359,7 +15365,7 @@
         <v>6</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E793" s="3">
         <v>1157.0</v>
@@ -15376,7 +15382,7 @@
         <v>6</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E794" s="3">
         <v>111.0</v>
@@ -15393,7 +15399,7 @@
         <v>6</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E795" s="3">
         <v>6582.0</v>
@@ -15410,7 +15416,7 @@
         <v>6</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E796" s="3">
         <v>928.0</v>
@@ -15444,7 +15450,7 @@
         <v>6</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E798" s="3">
         <v>2264.0</v>
@@ -15461,7 +15467,7 @@
         <v>6</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E799" s="3">
         <v>1014.0</v>
@@ -15478,7 +15484,7 @@
         <v>6</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E800" s="3">
         <v>1164.0</v>
@@ -15495,7 +15501,7 @@
         <v>6</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E801" s="3">
         <v>226.0</v>
@@ -15597,7 +15603,7 @@
         <v>6</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E807" s="3">
         <v>201.0</v>
@@ -15614,7 +15620,7 @@
         <v>6</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E808" s="3">
         <v>6888.0</v>
@@ -15631,7 +15637,7 @@
         <v>6</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E809" s="3">
         <v>18746.0</v>
@@ -15784,7 +15790,7 @@
         <v>6</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E818" s="3">
         <v>17127.0</v>
@@ -15886,7 +15892,7 @@
         <v>6</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E824" s="3">
         <v>20.0</v>
@@ -15903,7 +15909,7 @@
         <v>6</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E825" s="3">
         <v>1157.0</v>
@@ -15920,7 +15926,7 @@
         <v>6</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E826" s="3">
         <v>111.0</v>
@@ -15937,7 +15943,7 @@
         <v>6</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E827" s="3">
         <v>6582.0</v>
@@ -15954,7 +15960,7 @@
         <v>6</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E828" s="3">
         <v>928.0</v>
@@ -15971,7 +15977,7 @@
         <v>6</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E829" s="3">
         <v>4094.0</v>
@@ -15988,7 +15994,7 @@
         <v>6</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E830" s="3">
         <v>2264.0</v>
@@ -16005,7 +16011,7 @@
         <v>6</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E831" s="3">
         <v>1164.0</v>
@@ -16022,7 +16028,7 @@
         <v>6</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E832" s="3">
         <v>226.0</v>
@@ -16039,7 +16045,7 @@
         <v>6</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E833" s="3">
         <v>1014.0</v>
@@ -16073,7 +16079,7 @@
         <v>6</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E835" s="3">
         <v>12215.0</v>
@@ -16089,8 +16095,8 @@
       <c r="C836" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D836" s="4">
-        <v>7.20123E11</v>
+      <c r="D836" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E836" s="3">
         <v>29.0</v>
@@ -16106,8 +16112,8 @@
       <c r="C837" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D837" s="4">
-        <v>7.20123E11</v>
+      <c r="D837" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E837" s="3">
         <v>10806.0</v>
@@ -16124,7 +16130,7 @@
         <v>6</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E838" s="3">
         <v>928.0</v>
@@ -16141,7 +16147,7 @@
         <v>6</v>
       </c>
       <c r="D839" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E839" s="3">
         <v>6387.0</v>
@@ -16158,7 +16164,7 @@
         <v>6</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E840" s="3">
         <v>6320.0</v>
@@ -16175,7 +16181,7 @@
         <v>6</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E841" s="3">
         <v>5582.0</v>
@@ -16192,7 +16198,7 @@
         <v>6</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E842" s="3">
         <v>7288.0</v>
@@ -16209,7 +16215,7 @@
         <v>6</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E843" s="3">
         <v>8175.0</v>
@@ -16226,7 +16232,7 @@
         <v>6</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E844" s="3">
         <v>8175.0</v>
@@ -16243,7 +16249,7 @@
         <v>6</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E845" s="3">
         <v>203.0</v>
@@ -16260,7 +16266,7 @@
         <v>6</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E846" s="3">
         <v>4286.0</v>
@@ -16277,7 +16283,7 @@
         <v>6</v>
       </c>
       <c r="D847" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E847" s="3">
         <v>3801.0</v>
@@ -16515,7 +16521,7 @@
         <v>6</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E861" s="3">
         <v>12170.0</v>
@@ -16566,7 +16572,7 @@
         <v>6</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E864" s="3">
         <v>1014.0</v>
@@ -16583,7 +16589,7 @@
         <v>6</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E865" s="3">
         <v>314.0</v>
@@ -16600,7 +16606,7 @@
         <v>6</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E866" s="3">
         <v>6.0</v>
@@ -16617,7 +16623,7 @@
         <v>6</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E867" s="3">
         <v>6119.0</v>
@@ -16634,7 +16640,7 @@
         <v>6</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E868" s="3">
         <v>426.0</v>
@@ -16651,7 +16657,7 @@
         <v>6</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E869" s="3">
         <v>6582.0</v>
@@ -16668,7 +16674,7 @@
         <v>6</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E870" s="3">
         <v>928.0</v>
@@ -16685,7 +16691,7 @@
         <v>6</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E871" s="3">
         <v>11400.0</v>
@@ -16702,7 +16708,7 @@
         <v>6</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E872" s="3">
         <v>20.0</v>
@@ -16719,7 +16725,7 @@
         <v>6</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E873" s="3">
         <v>1157.0</v>
@@ -16736,7 +16742,7 @@
         <v>6</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E874" s="3">
         <v>111.0</v>
@@ -16753,7 +16759,7 @@
         <v>6</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E875" s="3">
         <v>2264.0</v>
@@ -16770,7 +16776,7 @@
         <v>6</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E876" s="3">
         <v>1164.0</v>
@@ -16787,7 +16793,7 @@
         <v>6</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E877" s="3">
         <v>4313.0</v>
@@ -16804,7 +16810,7 @@
         <v>6</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E878" s="3">
         <v>14764.0</v>
@@ -16821,7 +16827,7 @@
         <v>6</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E879" s="3">
         <v>226.0</v>
@@ -16855,7 +16861,7 @@
         <v>6</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E881" s="3">
         <v>19953.0</v>
@@ -16872,7 +16878,7 @@
         <v>6</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E882" s="3">
         <v>4498.0</v>
@@ -16889,7 +16895,7 @@
         <v>6</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E883" s="3">
         <v>7097.0</v>
@@ -16906,7 +16912,7 @@
         <v>6</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E884" s="3">
         <v>1188.0</v>
@@ -16923,7 +16929,7 @@
         <v>6</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E885" s="3">
         <v>928.0</v>
@@ -16991,7 +16997,7 @@
         <v>6</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E889" s="3">
         <v>1257.0</v>
@@ -17008,7 +17014,7 @@
         <v>6</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E890" s="3">
         <v>450.0</v>
@@ -17025,7 +17031,7 @@
         <v>6</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E891" s="3">
         <v>16830.0</v>
@@ -17042,7 +17048,7 @@
         <v>6</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E892" s="3">
         <v>44.0</v>
@@ -17076,7 +17082,7 @@
         <v>6</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E894" s="3">
         <v>780.0</v>
@@ -17144,7 +17150,7 @@
         <v>6</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E898" s="3">
         <v>2700.0</v>
@@ -17161,7 +17167,7 @@
         <v>6</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E899" s="3">
         <v>31194.0</v>
@@ -17178,7 +17184,7 @@
         <v>6</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E900" s="3">
         <v>3525.0</v>
@@ -17212,7 +17218,7 @@
         <v>6</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E902" s="3">
         <v>390.0</v>
@@ -17229,7 +17235,7 @@
         <v>6</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E903" s="3">
         <v>463.0</v>
@@ -17246,7 +17252,7 @@
         <v>6</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E904" s="3">
         <v>903.0</v>
@@ -17263,7 +17269,7 @@
         <v>6</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E905" s="3">
         <v>3709.0</v>
@@ -17280,7 +17286,7 @@
         <v>6</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E906" s="3">
         <v>7368.0</v>
@@ -17297,7 +17303,7 @@
         <v>6</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E907" s="3">
         <v>7368.0</v>
@@ -17314,7 +17320,7 @@
         <v>6</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E908" s="3">
         <v>720.0</v>
@@ -17331,7 +17337,7 @@
         <v>6</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E909" s="3">
         <v>42965.0</v>
@@ -17416,7 +17422,7 @@
         <v>6</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E914" s="3">
         <v>854.0</v>
@@ -17433,7 +17439,7 @@
         <v>6</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E915" s="3">
         <v>726.0</v>
@@ -17450,7 +17456,7 @@
         <v>6</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E916" s="3">
         <v>3295.0</v>
@@ -17467,7 +17473,7 @@
         <v>6</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E917" s="3">
         <v>6923.0</v>
@@ -17484,7 +17490,7 @@
         <v>6</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E918" s="3">
         <v>19749.0</v>
@@ -17501,7 +17507,7 @@
         <v>6</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E919" s="3">
         <v>1146.0</v>
@@ -17518,7 +17524,7 @@
         <v>6</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E920" s="3">
         <v>362.0</v>
@@ -17535,7 +17541,7 @@
         <v>6</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E921" s="3">
         <v>390.0</v>
@@ -17552,7 +17558,7 @@
         <v>6</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E922" s="3">
         <v>2425.0</v>
@@ -17569,7 +17575,7 @@
         <v>6</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E923" s="3">
         <v>360.0</v>
@@ -17586,7 +17592,7 @@
         <v>6</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E924" s="3">
         <v>375.0</v>
@@ -17603,7 +17609,7 @@
         <v>6</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E925" s="3">
         <v>362.0</v>
@@ -17620,7 +17626,7 @@
         <v>6</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E926" s="3">
         <v>928.0</v>
@@ -17637,7 +17643,7 @@
         <v>6</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E927" s="3">
         <v>254.0</v>
@@ -17654,7 +17660,7 @@
         <v>6</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E928" s="3">
         <v>248.0</v>
@@ -17671,7 +17677,7 @@
         <v>6</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E929" s="3">
         <v>244.0</v>
@@ -17688,7 +17694,7 @@
         <v>6</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E930" s="3">
         <v>655.0</v>
@@ -17705,7 +17711,7 @@
         <v>6</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E931" s="3">
         <v>980.0</v>
@@ -17722,7 +17728,7 @@
         <v>6</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E932" s="3">
         <v>1620.0</v>
@@ -17739,7 +17745,7 @@
         <v>6</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E933" s="3">
         <v>362.0</v>
@@ -17756,7 +17762,7 @@
         <v>6</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E934" s="3">
         <v>1164.0</v>
@@ -17773,7 +17779,7 @@
         <v>6</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E935" s="3">
         <v>1656.0</v>
@@ -17790,7 +17796,7 @@
         <v>6</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E936" s="3">
         <v>705.0</v>
@@ -17807,7 +17813,7 @@
         <v>6</v>
       </c>
       <c r="D937" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E937" s="3">
         <v>1810.0</v>
@@ -17824,7 +17830,7 @@
         <v>6</v>
       </c>
       <c r="D938" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E938" s="3">
         <v>8175.0</v>
@@ -17841,7 +17847,7 @@
         <v>6</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E939" s="3">
         <v>2264.0</v>
@@ -17858,7 +17864,7 @@
         <v>6</v>
       </c>
       <c r="D940" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E940" s="3">
         <v>444.0</v>
@@ -17875,7 +17881,7 @@
         <v>6</v>
       </c>
       <c r="D941" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E941" s="3">
         <v>1805.0</v>
@@ -17892,7 +17898,7 @@
         <v>6</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E942" s="3">
         <v>6316.0</v>
@@ -17909,7 +17915,7 @@
         <v>6</v>
       </c>
       <c r="D943" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E943" s="3">
         <v>928.0</v>
@@ -17926,7 +17932,7 @@
         <v>6</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E944" s="3">
         <v>6582.0</v>
@@ -17943,7 +17949,7 @@
         <v>6</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E945" s="3">
         <v>226.0</v>
@@ -17960,7 +17966,7 @@
         <v>6</v>
       </c>
       <c r="D946" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E946" s="3">
         <v>20.0</v>
@@ -17977,7 +17983,7 @@
         <v>6</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E947" s="3">
         <v>111.0</v>
@@ -17994,7 +18000,7 @@
         <v>6</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E948" s="3">
         <v>1157.0</v>
@@ -18011,7 +18017,7 @@
         <v>6</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E949" s="3">
         <v>21949.0</v>
@@ -18028,7 +18034,7 @@
         <v>6</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E950" s="3">
         <v>1725.0</v>
@@ -18045,7 +18051,7 @@
         <v>6</v>
       </c>
       <c r="D951" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E951" s="3">
         <v>27810.0</v>
@@ -18062,7 +18068,7 @@
         <v>6</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E952" s="3">
         <v>485.0</v>
@@ -18079,7 +18085,7 @@
         <v>6</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E953" s="3">
         <v>370.0</v>
@@ -18096,7 +18102,7 @@
         <v>6</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E954" s="3">
         <v>1850.0</v>
@@ -18113,7 +18119,7 @@
         <v>6</v>
       </c>
       <c r="D955" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E955" s="3">
         <v>722.0</v>
@@ -18130,7 +18136,7 @@
         <v>6</v>
       </c>
       <c r="D956" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E956" s="3">
         <v>1524.0</v>
@@ -18147,7 +18153,7 @@
         <v>6</v>
       </c>
       <c r="D957" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E957" s="3">
         <v>732.0</v>
@@ -18164,7 +18170,7 @@
         <v>6</v>
       </c>
       <c r="D958" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E958" s="3">
         <v>540.0</v>
@@ -18181,7 +18187,7 @@
         <v>6</v>
       </c>
       <c r="D959" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E959" s="3">
         <v>375.0</v>
@@ -18198,7 +18204,7 @@
         <v>6</v>
       </c>
       <c r="D960" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E960" s="3">
         <v>363.0</v>
@@ -18215,7 +18221,7 @@
         <v>6</v>
       </c>
       <c r="D961" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E961" s="3">
         <v>368.0</v>
@@ -18232,7 +18238,7 @@
         <v>6</v>
       </c>
       <c r="D962" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E962" s="3">
         <v>362.0</v>
@@ -18249,7 +18255,7 @@
         <v>6</v>
       </c>
       <c r="D963" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E963" s="3">
         <v>370.0</v>
@@ -18266,7 +18272,7 @@
         <v>6</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E964" s="3">
         <v>573.0</v>
@@ -18283,7 +18289,7 @@
         <v>6</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E965" s="3">
         <v>363.0</v>
@@ -18300,7 +18306,7 @@
         <v>6</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E966" s="3">
         <v>359.0</v>
@@ -18317,7 +18323,7 @@
         <v>6</v>
       </c>
       <c r="D967" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E967" s="3">
         <v>1875.0</v>
@@ -18385,7 +18391,7 @@
         <v>6</v>
       </c>
       <c r="D971" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E971" s="3">
         <v>361.0</v>
@@ -18402,7 +18408,7 @@
         <v>6</v>
       </c>
       <c r="D972" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E972" s="3">
         <v>1200.0</v>
@@ -18419,7 +18425,7 @@
         <v>6</v>
       </c>
       <c r="D973" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E973" s="3">
         <v>250.0</v>
@@ -18436,7 +18442,7 @@
         <v>6</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E974" s="3">
         <v>362.0</v>
@@ -18453,7 +18459,7 @@
         <v>6</v>
       </c>
       <c r="D975" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E975" s="3">
         <v>381.0</v>
@@ -18470,7 +18476,7 @@
         <v>6</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E976" s="3">
         <v>1200.0</v>
@@ -18487,7 +18493,7 @@
         <v>6</v>
       </c>
       <c r="D977" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E977" s="3">
         <v>444.0</v>
@@ -18504,7 +18510,7 @@
         <v>6</v>
       </c>
       <c r="D978" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E978" s="3">
         <v>926.0</v>
@@ -18521,7 +18527,7 @@
         <v>6</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E979" s="3">
         <v>611.0</v>
@@ -18538,7 +18544,7 @@
         <v>6</v>
       </c>
       <c r="D980" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E980" s="3">
         <v>362.0</v>
@@ -18555,7 +18561,7 @@
         <v>6</v>
       </c>
       <c r="D981" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E981" s="3">
         <v>726.0</v>
@@ -18572,7 +18578,7 @@
         <v>6</v>
       </c>
       <c r="D982" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E982" s="3">
         <v>573.0</v>
@@ -18589,7 +18595,7 @@
         <v>6</v>
       </c>
       <c r="D983" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E983" s="3">
         <v>511.0</v>
@@ -18606,7 +18612,7 @@
         <v>6</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E984" s="3">
         <v>362.0</v>
@@ -18623,7 +18629,7 @@
         <v>6</v>
       </c>
       <c r="D985" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E985" s="3">
         <v>381.0</v>
@@ -18640,7 +18646,7 @@
         <v>6</v>
       </c>
       <c r="D986" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E986" s="3">
         <v>375.0</v>
@@ -18657,7 +18663,7 @@
         <v>6</v>
       </c>
       <c r="D987" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E987" s="3">
         <v>360.0</v>
@@ -18674,7 +18680,7 @@
         <v>6</v>
       </c>
       <c r="D988" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E988" s="3">
         <v>828.0</v>
@@ -18691,7 +18697,7 @@
         <v>6</v>
       </c>
       <c r="D989" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E989" s="3">
         <v>860.0</v>
@@ -18708,7 +18714,7 @@
         <v>6</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E990" s="3">
         <v>463.0</v>
@@ -18725,7 +18731,7 @@
         <v>6</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E991" s="3">
         <v>611.0</v>
@@ -18742,7 +18748,7 @@
         <v>6</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E992" s="3">
         <v>357.0</v>
@@ -18759,7 +18765,7 @@
         <v>6</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E993" s="3">
         <v>720.0</v>
@@ -18793,7 +18799,7 @@
         <v>6</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E995" s="3">
         <v>996.0</v>
@@ -18810,7 +18816,7 @@
         <v>6</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E996" s="3">
         <v>16493.0</v>
@@ -18827,7 +18833,7 @@
         <v>6</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E997" s="3">
         <v>724.0</v>
@@ -18844,7 +18850,7 @@
         <v>6</v>
       </c>
       <c r="D998" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E998" s="3">
         <v>12078.0</v>
@@ -18861,7 +18867,7 @@
         <v>6</v>
       </c>
       <c r="D999" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E999" s="3">
         <v>14731.0</v>
@@ -18878,7 +18884,7 @@
         <v>6</v>
       </c>
       <c r="D1000" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1000" s="3">
         <v>4784.0</v>
@@ -18946,7 +18952,7 @@
         <v>6</v>
       </c>
       <c r="D1004" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E1004" s="3">
         <v>366.0</v>
@@ -18963,7 +18969,7 @@
         <v>6</v>
       </c>
       <c r="D1005" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E1005" s="3">
         <v>444.0</v>
@@ -18980,7 +18986,7 @@
         <v>6</v>
       </c>
       <c r="D1006" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E1006" s="3">
         <v>2000.0</v>
@@ -18997,7 +19003,7 @@
         <v>6</v>
       </c>
       <c r="D1007" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E1007" s="3">
         <v>585.0</v>
@@ -19014,7 +19020,7 @@
         <v>6</v>
       </c>
       <c r="D1008" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E1008" s="3">
         <v>970.0</v>
@@ -19031,7 +19037,7 @@
         <v>6</v>
       </c>
       <c r="D1009" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E1009" s="3">
         <v>3275.0</v>
@@ -19048,7 +19054,7 @@
         <v>6</v>
       </c>
       <c r="D1010" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E1010" s="3">
         <v>370.0</v>
@@ -19065,7 +19071,7 @@
         <v>6</v>
       </c>
       <c r="D1011" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E1011" s="3">
         <v>3612.0</v>
@@ -19082,7 +19088,7 @@
         <v>6</v>
       </c>
       <c r="D1012" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E1012" s="3">
         <v>573.0</v>
@@ -19099,7 +19105,7 @@
         <v>6</v>
       </c>
       <c r="D1013" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E1013" s="3">
         <v>362.0</v>
@@ -19116,7 +19122,7 @@
         <v>6</v>
       </c>
       <c r="D1014" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E1014" s="3">
         <v>2135.0</v>
@@ -19133,7 +19139,7 @@
         <v>6</v>
       </c>
       <c r="D1015" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E1015" s="3">
         <v>357.0</v>
@@ -19150,7 +19156,7 @@
         <v>6</v>
       </c>
       <c r="D1016" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E1016" s="3">
         <v>77.0</v>
@@ -19167,7 +19173,7 @@
         <v>6</v>
       </c>
       <c r="D1017" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E1017" s="3">
         <v>3795.0</v>
@@ -19184,7 +19190,7 @@
         <v>6</v>
       </c>
       <c r="D1018" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E1018" s="3">
         <v>19595.0</v>
@@ -19218,7 +19224,7 @@
         <v>6</v>
       </c>
       <c r="D1020" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E1020" s="3">
         <v>412.0</v>
@@ -19235,7 +19241,7 @@
         <v>6</v>
       </c>
       <c r="D1021" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E1021" s="3">
         <v>360.0</v>
@@ -19286,7 +19292,7 @@
         <v>6</v>
       </c>
       <c r="D1024" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E1024" s="3">
         <v>1560.0</v>
@@ -19303,7 +19309,7 @@
         <v>6</v>
       </c>
       <c r="D1025" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E1025" s="3">
         <v>2135.0</v>
@@ -19320,7 +19326,7 @@
         <v>6</v>
       </c>
       <c r="D1026" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E1026" s="3">
         <v>1815.0</v>
@@ -19337,7 +19343,7 @@
         <v>6</v>
       </c>
       <c r="D1027" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E1027" s="3">
         <v>412.0</v>
@@ -19354,7 +19360,7 @@
         <v>6</v>
       </c>
       <c r="D1028" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E1028" s="3">
         <v>485.0</v>
@@ -19371,7 +19377,7 @@
         <v>6</v>
       </c>
       <c r="D1029" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E1029" s="3">
         <v>360.0</v>
@@ -19388,7 +19394,7 @@
         <v>6</v>
       </c>
       <c r="D1030" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E1030" s="3">
         <v>3055.0</v>
@@ -19405,7 +19411,7 @@
         <v>6</v>
       </c>
       <c r="D1031" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E1031" s="3">
         <v>903.0</v>
@@ -19422,7 +19428,7 @@
         <v>6</v>
       </c>
       <c r="D1032" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E1032" s="3">
         <v>361.0</v>
@@ -19439,7 +19445,7 @@
         <v>6</v>
       </c>
       <c r="D1033" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E1033" s="3">
         <v>888.0</v>
@@ -19456,7 +19462,7 @@
         <v>6</v>
       </c>
       <c r="D1034" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E1034" s="3">
         <v>714.0</v>
@@ -19473,7 +19479,7 @@
         <v>6</v>
       </c>
       <c r="D1035" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1035" s="3">
         <v>16746.0</v>
@@ -19490,7 +19496,7 @@
         <v>6</v>
       </c>
       <c r="D1036" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E1036" s="3">
         <v>15193.0</v>
@@ -19507,7 +19513,7 @@
         <v>6</v>
       </c>
       <c r="D1037" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E1037" s="3">
         <v>370.0</v>
@@ -19524,7 +19530,7 @@
         <v>6</v>
       </c>
       <c r="D1038" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1038" s="3">
         <v>20812.0</v>
@@ -19541,7 +19547,7 @@
         <v>6</v>
       </c>
       <c r="D1039" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1039" s="3">
         <v>13127.0</v>
@@ -19558,7 +19564,7 @@
         <v>6</v>
       </c>
       <c r="D1040" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E1040" s="3">
         <v>463.0</v>
@@ -19575,7 +19581,7 @@
         <v>6</v>
       </c>
       <c r="D1041" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E1041" s="3">
         <v>3275.0</v>
@@ -19592,7 +19598,7 @@
         <v>6</v>
       </c>
       <c r="D1042" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E1042" s="3">
         <v>363.0</v>
@@ -19609,7 +19615,7 @@
         <v>6</v>
       </c>
       <c r="D1043" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E1043" s="3">
         <v>400.0</v>
@@ -19626,7 +19632,7 @@
         <v>6</v>
       </c>
       <c r="D1044" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E1044" s="3">
         <v>2292.0</v>
@@ -19643,7 +19649,7 @@
         <v>6</v>
       </c>
       <c r="D1045" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E1045" s="3">
         <v>705.0</v>
@@ -19660,7 +19666,7 @@
         <v>6</v>
       </c>
       <c r="D1046" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E1046" s="3">
         <v>2865.0</v>
@@ -19677,7 +19683,7 @@
         <v>6</v>
       </c>
       <c r="D1047" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E1047" s="3">
         <v>306.0</v>
@@ -19694,7 +19700,7 @@
         <v>6</v>
       </c>
       <c r="D1048" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E1048" s="3">
         <v>400.0</v>
@@ -19711,7 +19717,7 @@
         <v>6</v>
       </c>
       <c r="D1049" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E1049" s="3">
         <v>59.0</v>
@@ -19728,7 +19734,7 @@
         <v>6</v>
       </c>
       <c r="D1050" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E1050" s="3">
         <v>4161.0</v>
@@ -19745,7 +19751,7 @@
         <v>6</v>
       </c>
       <c r="D1051" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E1051" s="3">
         <v>655.0</v>
@@ -19762,7 +19768,7 @@
         <v>6</v>
       </c>
       <c r="D1052" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1052" s="3">
         <v>345.0</v>
@@ -19779,7 +19785,7 @@
         <v>6</v>
       </c>
       <c r="D1053" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1053" s="3">
         <v>6781.0</v>
@@ -19796,7 +19802,7 @@
         <v>6</v>
       </c>
       <c r="D1054" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E1054" s="3">
         <v>263.0</v>
@@ -19813,7 +19819,7 @@
         <v>6</v>
       </c>
       <c r="D1055" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E1055" s="3">
         <v>2060.0</v>
@@ -19830,7 +19836,7 @@
         <v>6</v>
       </c>
       <c r="D1056" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E1056" s="3">
         <v>750.0</v>
@@ -19863,8 +19869,8 @@
       <c r="C1058" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1058" s="2">
-        <v>7.20122E11</v>
+      <c r="D1058" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="E1058" s="3">
         <v>200000.0</v>
@@ -19881,7 +19887,7 @@
         <v>6</v>
       </c>
       <c r="D1059" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E1059" s="3">
         <v>2135.0</v>
@@ -19966,7 +19972,7 @@
         <v>6</v>
       </c>
       <c r="D1064" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E1064" s="3">
         <v>354.0</v>
@@ -19983,7 +19989,7 @@
         <v>6</v>
       </c>
       <c r="D1065" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E1065" s="3">
         <v>390.0</v>
@@ -20000,7 +20006,7 @@
         <v>6</v>
       </c>
       <c r="D1066" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E1066" s="3">
         <v>412.0</v>
@@ -20017,7 +20023,7 @@
         <v>6</v>
       </c>
       <c r="D1067" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E1067" s="3">
         <v>412.0</v>
@@ -20034,7 +20040,7 @@
         <v>6</v>
       </c>
       <c r="D1068" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E1068" s="3">
         <v>361.0</v>
@@ -20051,7 +20057,7 @@
         <v>6</v>
       </c>
       <c r="D1069" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E1069" s="3">
         <v>363.0</v>
@@ -20068,7 +20074,7 @@
         <v>6</v>
       </c>
       <c r="D1070" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E1070" s="3">
         <v>463.0</v>
@@ -20085,7 +20091,7 @@
         <v>6</v>
       </c>
       <c r="D1071" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E1071" s="3">
         <v>381.0</v>
@@ -20102,7 +20108,7 @@
         <v>6</v>
       </c>
       <c r="D1072" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E1072" s="3">
         <v>381.0</v>
@@ -20119,7 +20125,7 @@
         <v>6</v>
       </c>
       <c r="D1073" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E1073" s="3">
         <v>400.0</v>
@@ -20136,7 +20142,7 @@
         <v>6</v>
       </c>
       <c r="D1074" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E1074" s="3">
         <v>1830.0</v>
@@ -20153,7 +20159,7 @@
         <v>6</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E1075" s="3">
         <v>5825.0</v>
@@ -20170,7 +20176,7 @@
         <v>6</v>
       </c>
       <c r="D1076" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E1076" s="3">
         <v>390.0</v>
@@ -20187,7 +20193,7 @@
         <v>6</v>
       </c>
       <c r="D1077" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1077" s="3">
         <v>928.0</v>
@@ -20204,7 +20210,7 @@
         <v>6</v>
       </c>
       <c r="D1078" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1078" s="3">
         <v>1188.0</v>
@@ -20221,7 +20227,7 @@
         <v>6</v>
       </c>
       <c r="D1079" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E1079" s="3">
         <v>412.0</v>
@@ -20238,7 +20244,7 @@
         <v>6</v>
       </c>
       <c r="D1080" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E1080" s="3">
         <v>375.0</v>
@@ -20255,7 +20261,7 @@
         <v>6</v>
       </c>
       <c r="D1081" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E1081" s="3">
         <v>390.0</v>
@@ -20272,7 +20278,7 @@
         <v>6</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E1082" s="3">
         <v>250.0</v>
@@ -20289,7 +20295,7 @@
         <v>6</v>
       </c>
       <c r="D1083" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E1083" s="3">
         <v>248.0</v>
@@ -20306,7 +20312,7 @@
         <v>6</v>
       </c>
       <c r="D1084" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E1084" s="3">
         <v>248.0</v>
@@ -20323,7 +20329,7 @@
         <v>6</v>
       </c>
       <c r="D1085" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E1085" s="3">
         <v>276.0</v>
@@ -20340,7 +20346,7 @@
         <v>6</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E1086" s="3">
         <v>258.0</v>
@@ -20357,7 +20363,7 @@
         <v>6</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E1087" s="3">
         <v>412.0</v>
@@ -20374,7 +20380,7 @@
         <v>6</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E1088" s="3">
         <v>254.0</v>
@@ -20391,7 +20397,7 @@
         <v>6</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E1089" s="3">
         <v>366.0</v>
@@ -20408,7 +20414,7 @@
         <v>6</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E1090" s="3">
         <v>250.0</v>
@@ -20425,7 +20431,7 @@
         <v>6</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E1091" s="3">
         <v>362.0</v>
@@ -20442,7 +20448,7 @@
         <v>6</v>
       </c>
       <c r="D1092" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E1092" s="3">
         <v>828.0</v>
@@ -20459,7 +20465,7 @@
         <v>6</v>
       </c>
       <c r="D1093" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E1093" s="3">
         <v>375.0</v>
@@ -20476,7 +20482,7 @@
         <v>6</v>
       </c>
       <c r="D1094" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E1094" s="3">
         <v>368.0</v>
@@ -20493,7 +20499,7 @@
         <v>6</v>
       </c>
       <c r="D1095" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E1095" s="3">
         <v>427.0</v>
@@ -20510,7 +20516,7 @@
         <v>6</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E1096" s="3">
         <v>463.0</v>
@@ -20527,7 +20533,7 @@
         <v>6</v>
       </c>
       <c r="D1097" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E1097" s="3">
         <v>333.0</v>
@@ -20544,7 +20550,7 @@
         <v>6</v>
       </c>
       <c r="D1098" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E1098" s="3">
         <v>400.0</v>
@@ -20561,7 +20567,7 @@
         <v>6</v>
       </c>
       <c r="D1099" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E1099" s="3">
         <v>463.0</v>
@@ -20578,7 +20584,7 @@
         <v>6</v>
       </c>
       <c r="D1100" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E1100" s="3">
         <v>1833.0</v>
@@ -20595,7 +20601,7 @@
         <v>6</v>
       </c>
       <c r="D1101" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E1101" s="3">
         <v>412.0</v>
@@ -20612,7 +20618,7 @@
         <v>6</v>
       </c>
       <c r="D1102" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E1102" s="3">
         <v>1098.0</v>
@@ -20629,7 +20635,7 @@
         <v>6</v>
       </c>
       <c r="D1103" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E1103" s="3">
         <v>390.0</v>
@@ -20646,7 +20652,7 @@
         <v>6</v>
       </c>
       <c r="D1104" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E1104" s="3">
         <v>370.0</v>
@@ -20663,7 +20669,7 @@
         <v>6</v>
       </c>
       <c r="D1105" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E1105" s="3">
         <v>427.0</v>
@@ -20680,7 +20686,7 @@
         <v>6</v>
       </c>
       <c r="D1106" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E1106" s="3">
         <v>400.0</v>
@@ -20697,7 +20703,7 @@
         <v>6</v>
       </c>
       <c r="D1107" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1107" s="3">
         <v>800.0</v>
@@ -20714,7 +20720,7 @@
         <v>6</v>
       </c>
       <c r="D1108" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E1108" s="3">
         <v>318.0</v>
@@ -20731,7 +20737,7 @@
         <v>6</v>
       </c>
       <c r="D1109" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E1109" s="3">
         <v>444.0</v>
@@ -20748,7 +20754,7 @@
         <v>6</v>
       </c>
       <c r="D1110" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E1110" s="3">
         <v>427.0</v>
@@ -20765,7 +20771,7 @@
         <v>6</v>
       </c>
       <c r="D1111" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1111" s="3">
         <v>366.0</v>
@@ -20782,7 +20788,7 @@
         <v>6</v>
       </c>
       <c r="D1112" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E1112" s="3">
         <v>511.0</v>
@@ -20799,7 +20805,7 @@
         <v>6</v>
       </c>
       <c r="D1113" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E1113" s="3">
         <v>375.0</v>
@@ -20816,7 +20822,7 @@
         <v>6</v>
       </c>
       <c r="D1114" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E1114" s="3">
         <v>1656.0</v>
@@ -20833,7 +20839,7 @@
         <v>6</v>
       </c>
       <c r="D1115" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E1115" s="3">
         <v>390.0</v>
@@ -20850,7 +20856,7 @@
         <v>6</v>
       </c>
       <c r="D1116" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E1116" s="3">
         <v>511.0</v>
@@ -20867,7 +20873,7 @@
         <v>6</v>
       </c>
       <c r="D1117" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E1117" s="3">
         <v>705.0</v>
@@ -20884,7 +20890,7 @@
         <v>6</v>
       </c>
       <c r="D1118" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E1118" s="3">
         <v>540.0</v>
@@ -20901,7 +20907,7 @@
         <v>6</v>
       </c>
       <c r="D1119" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E1119" s="3">
         <v>540.0</v>
@@ -20918,7 +20924,7 @@
         <v>6</v>
       </c>
       <c r="D1120" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E1120" s="3">
         <v>363.0</v>
@@ -20935,7 +20941,7 @@
         <v>6</v>
       </c>
       <c r="D1121" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E1121" s="3">
         <v>366.0</v>
@@ -20952,7 +20958,7 @@
         <v>6</v>
       </c>
       <c r="D1122" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E1122" s="3">
         <v>362.0</v>
@@ -20969,7 +20975,7 @@
         <v>6</v>
       </c>
       <c r="D1123" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E1123" s="3">
         <v>970.0</v>
@@ -20986,7 +20992,7 @@
         <v>6</v>
       </c>
       <c r="D1124" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E1124" s="3">
         <v>370.0</v>
@@ -21003,7 +21009,7 @@
         <v>6</v>
       </c>
       <c r="D1125" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E1125" s="3">
         <v>357.0</v>
@@ -21020,7 +21026,7 @@
         <v>6</v>
       </c>
       <c r="D1126" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E1126" s="3">
         <v>366.0</v>
@@ -21037,7 +21043,7 @@
         <v>6</v>
       </c>
       <c r="D1127" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E1127" s="3">
         <v>412.0</v>
@@ -21054,7 +21060,7 @@
         <v>6</v>
       </c>
       <c r="D1128" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E1128" s="3">
         <v>412.0</v>
@@ -21071,7 +21077,7 @@
         <v>6</v>
       </c>
       <c r="D1129" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E1129" s="3">
         <v>511.0</v>
@@ -21088,7 +21094,7 @@
         <v>6</v>
       </c>
       <c r="D1130" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E1130" s="3">
         <v>381.0</v>
@@ -21105,7 +21111,7 @@
         <v>6</v>
       </c>
       <c r="D1131" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E1131" s="3">
         <v>511.0</v>
@@ -21122,7 +21128,7 @@
         <v>6</v>
       </c>
       <c r="D1132" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E1132" s="3">
         <v>485.0</v>
@@ -21139,7 +21145,7 @@
         <v>6</v>
       </c>
       <c r="D1133" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E1133" s="3">
         <v>357.0</v>
@@ -21156,7 +21162,7 @@
         <v>6</v>
       </c>
       <c r="D1134" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E1134" s="3">
         <v>381.0</v>
@@ -21173,7 +21179,7 @@
         <v>6</v>
       </c>
       <c r="D1135" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E1135" s="3">
         <v>444.0</v>
@@ -21190,7 +21196,7 @@
         <v>6</v>
       </c>
       <c r="D1136" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E1136" s="3">
         <v>370.0</v>
